--- a/train_tools/qna/answer_data.xlsx
+++ b/train_tools/qna/answer_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq348\Desktop\SSU_BOT\train_tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq348\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C307361-407E-4734-9C04-E08666E47B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951948E-2B7B-4FD4-96C0-84D960BDACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="450">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -2889,12 +2889,40 @@
 → 벤처중소기업학과 : 02-820-0590</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도담식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soongguri.com/main.php?mkey=2&amp;w=3&amp;l=1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2934,6 +2962,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2967,10 +3010,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2987,9 +3031,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3293,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:XFD215"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6497,16 +6545,60 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D229" s="3"/>
+      <c r="A229" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D230" s="3"/>
+      <c r="A230" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D231" s="3"/>
+      <c r="A231" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D232" s="3"/>
+      <c r="A232" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D233" s="3"/>
@@ -6525,7 +6617,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C230" r:id="rId1" xr:uid="{383B9B62-6B04-4751-A3F3-CCB686E5D31F}"/>
+    <hyperlink ref="C229" r:id="rId2" xr:uid="{AEA8C1EA-7E75-4808-B422-8F1C61305A55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/train_tools/qna/answer_data.xlsx
+++ b/train_tools/qna/answer_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq348\Desktop\SSU_BOT\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951948E-2B7B-4FD4-96C0-84D960BDACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760B403D-8159-493E-A92C-2B62456B2281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="449">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -2359,10 +2359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년9월학사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>♣ 숭실대학교 2024년 9월 학사일정입니다 ♣
 → 9/1(일)~9/5(목) : 2024학년도 2학기 휴학시 수업료 전액 반환 기간
 → 9/2(월)~9/6(금) : 2024학년도 2학기 수강신청 확인 및 변경기간
@@ -2374,33 +2370,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기수강신청취소일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기수강신청일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년10월학사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>♣ 숭실대학교 2024년 11월 학사일정입니다 ♣
 → 11/4(월)~11/18(월) : 2024학년도 2학기 다전공 신청기간(1차)
 → 11/28(목) : 2024학년도 2학기 채플 종강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년11월학사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기채플종강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년12월학사일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2413,39 +2385,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기기말강의평가일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기기말고사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년겨울학기일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>♣ 숭실대학교 2025년 1월 학사일정입니다 ♣
 → 1/6(월)~2/5(수) : 2025학년도 1학기 휴학/복학 신청기간(1차)
 → 1/13(월)~1/15(수) : 2025학년도 2학기 다전공 신청기간(2차)
 → 1/13(월)~1/15(수) : 2025학년도 1학기 전과/다전공 신청기간
 → 1/15(수) : 2024학년도 겨울학기 겨울계절제 종강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년2월학사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년1월학사일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년1학기수강신청일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년졸업식일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2915,6 +2859,62 @@
   </si>
   <si>
     <t>저녁메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청취소일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개교기념일알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플종강일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공신청기간알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울학기계절제일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말고사일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말강의평가일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내년학사일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업식일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내년수강신청일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♣ 숭실대학교 2025년 2월 학사일정입니다 ♣
+→ 2/17(월)~2/20(목) : 2025학년도 1학기 수강신청기간
+→ 2/21(금) : 2024학년도 전기 학위수여식
+→ 2/24(월) : 2025학년도 1학기 수강신청기간(전체)
+→ 2/24(월)~2/28(금) : 2025학년도 1학기 등록금납부기간
+→ 2/25(화)~2/28(금) : 2025학년도 1학기 휴학/복학 신청기간(1차)</t>
+  </si>
+  <si>
+    <t>등록금납부기간일정알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번학기수강신청일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3014,7 +3014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3028,16 +3028,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3339,22 +3336,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3396,7 +3393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3424,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3452,7 +3449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3494,7 +3491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -3536,7 +3533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -3732,7 +3729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -3746,7 +3743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +3799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3844,7 +3841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="363" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="374" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -3908,13 +3905,13 @@
         <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3922,13 +3919,13 @@
         <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3936,13 +3933,13 @@
         <v>75</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3950,13 +3947,13 @@
         <v>76</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3964,13 +3961,13 @@
         <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3978,13 +3975,13 @@
         <v>78</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3992,13 +3989,13 @@
         <v>79</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -4006,13 +4003,13 @@
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -4020,13 +4017,13 @@
         <v>81</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4034,13 +4031,13 @@
         <v>82</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -4048,13 +4045,13 @@
         <v>83</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -4062,13 +4059,13 @@
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4076,13 +4073,13 @@
         <v>85</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -4236,12 +4233,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>111</v>
@@ -4250,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -4264,7 +4261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -4292,7 +4289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -4348,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -4370,13 +4367,13 @@
         <v>125</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
@@ -4384,13 +4381,13 @@
         <v>126</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -4398,13 +4395,13 @@
         <v>127</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4412,13 +4409,13 @@
         <v>128</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -4446,7 +4443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +4499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
@@ -4558,7 +4555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
@@ -4614,7 +4611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4628,7 +4625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4670,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -4684,7 +4681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4768,7 +4765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -4796,7 +4793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
@@ -4824,7 +4821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>187</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>187</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>187</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>187</v>
       </c>
@@ -4880,7 +4877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>187</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>187</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>187</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>187</v>
       </c>
@@ -4936,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>187</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>187</v>
       </c>
@@ -4964,7 +4961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>187</v>
       </c>
@@ -4978,7 +4975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>187</v>
       </c>
@@ -4992,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>187</v>
       </c>
@@ -5006,7 +5003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>187</v>
       </c>
@@ -5020,7 +5017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>187</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>187</v>
       </c>
@@ -5048,7 +5045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>187</v>
       </c>
@@ -5062,7 +5059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>187</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>187</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>187</v>
       </c>
@@ -5104,7 +5101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>187</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>187</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>187</v>
       </c>
@@ -5146,7 +5143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>187</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>187</v>
       </c>
@@ -5174,7 +5171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
@@ -5188,7 +5185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
@@ -5202,7 +5199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -5244,7 +5241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>5</v>
       </c>
@@ -5258,7 +5255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
@@ -5272,7 +5269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -5286,7 +5283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -5300,7 +5297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
@@ -5328,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
@@ -5384,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>5</v>
       </c>
@@ -5440,7 +5437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
@@ -5482,7 +5479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -5496,7 +5493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5524,7 +5521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>5</v>
       </c>
@@ -5538,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5594,7 +5591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
@@ -5608,7 +5605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
@@ -5622,7 +5619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
@@ -5650,7 +5647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
@@ -5664,7 +5661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -5692,7 +5689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
@@ -5720,7 +5717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -5748,7 +5745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>5</v>
       </c>
@@ -5762,7 +5759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>5</v>
       </c>
@@ -5770,13 +5767,13 @@
         <v>330</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
@@ -5784,13 +5781,13 @@
         <v>331</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
@@ -5798,13 +5795,13 @@
         <v>332</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>5</v>
       </c>
@@ -5812,13 +5809,13 @@
         <v>333</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -5826,13 +5823,13 @@
         <v>334</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
@@ -5840,13 +5837,13 @@
         <v>335</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -5854,13 +5851,13 @@
         <v>336</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -5868,13 +5865,13 @@
         <v>337</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
@@ -5882,13 +5879,13 @@
         <v>338</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -5896,13 +5893,13 @@
         <v>339</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>5</v>
       </c>
@@ -5910,13 +5907,13 @@
         <v>340</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -5924,13 +5921,13 @@
         <v>341</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
@@ -5938,13 +5935,13 @@
         <v>342</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
@@ -5958,7 +5955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>5</v>
       </c>
@@ -5966,13 +5963,13 @@
         <v>344</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
@@ -5980,25 +5977,25 @@
         <v>345</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>5</v>
       </c>
@@ -6006,13 +6003,13 @@
         <v>348</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
@@ -6026,7 +6023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -6034,13 +6031,13 @@
         <v>350</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
@@ -6048,13 +6045,13 @@
         <v>351</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -6062,564 +6059,536 @@
         <v>352</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A196" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="D202" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C204" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A205" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="1" t="s">
+      <c r="C205" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A206" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C206" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A207" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="C207" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C208" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="C209" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C210" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="C211" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A212" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C212" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A213" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="C213" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="C214" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="D214" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D215" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>374</v>
+        <v>430</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D235" s="3"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D236" s="3"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D237" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C230" r:id="rId1" xr:uid="{383B9B62-6B04-4751-A3F3-CCB686E5D31F}"/>
-    <hyperlink ref="C229" r:id="rId2" xr:uid="{AEA8C1EA-7E75-4808-B422-8F1C61305A55}"/>
+    <hyperlink ref="C228" r:id="rId1" xr:uid="{383B9B62-6B04-4751-A3F3-CCB686E5D31F}"/>
+    <hyperlink ref="C227" r:id="rId2" xr:uid="{AEA8C1EA-7E75-4808-B422-8F1C61305A55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/train_tools/qna/answer_data.xlsx
+++ b/train_tools/qna/answer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760B403D-8159-493E-A92C-2B62456B2281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8999D0-2493-425D-8ACC-EC89C395D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="468">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -2916,6 +2916,82 @@
   <si>
     <t>이번학기수강신청일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/14.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/12.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/11.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/0.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/10.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/1.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/4.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/15.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/18.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/3.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/17.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/8.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/2.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/16.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/9.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/5.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/6.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/7.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147/images/13.jpg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3014,7 +3090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3030,6 +3106,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3338,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4691,8 +4770,8 @@
       <c r="C96" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>7</v>
+      <c r="D96" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
@@ -4719,8 +4798,8 @@
       <c r="C98" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
+      <c r="D98" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -4733,8 +4812,8 @@
       <c r="C99" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>7</v>
+      <c r="D99" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -4831,8 +4910,8 @@
       <c r="C106" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>7</v>
+      <c r="D106" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4845,8 +4924,8 @@
       <c r="C107" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>7</v>
+      <c r="D107" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4859,8 +4938,8 @@
       <c r="C108" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>7</v>
+      <c r="D108" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4873,8 +4952,8 @@
       <c r="C109" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>7</v>
+      <c r="D109" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4887,8 +4966,8 @@
       <c r="C110" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>7</v>
+      <c r="D110" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4901,8 +4980,8 @@
       <c r="C111" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
+      <c r="D111" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4915,8 +4994,8 @@
       <c r="C112" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>7</v>
+      <c r="D112" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4929,8 +5008,8 @@
       <c r="C113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>7</v>
+      <c r="D113" s="6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4943,8 +5022,8 @@
       <c r="C114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>7</v>
+      <c r="D114" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4957,8 +5036,8 @@
       <c r="C115" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>7</v>
+      <c r="D115" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4971,8 +5050,8 @@
       <c r="C116" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>7</v>
+      <c r="D116" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4985,8 +5064,8 @@
       <c r="C117" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>7</v>
+      <c r="D117" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -4999,8 +5078,8 @@
       <c r="C118" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>7</v>
+      <c r="D118" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5013,8 +5092,8 @@
       <c r="C119" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
+      <c r="D119" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5027,8 +5106,8 @@
       <c r="C120" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>7</v>
+      <c r="D120" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5041,8 +5120,8 @@
       <c r="C121" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>7</v>
+      <c r="D121" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5055,8 +5134,8 @@
       <c r="C122" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
+      <c r="D122" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5069,8 +5148,8 @@
       <c r="C123" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
+      <c r="D123" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5083,8 +5162,8 @@
       <c r="C124" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
+      <c r="D124" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5097,8 +5176,8 @@
       <c r="C125" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
+      <c r="D125" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5111,8 +5190,8 @@
       <c r="C126" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
+      <c r="D126" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5125,8 +5204,8 @@
       <c r="C127" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
+      <c r="D127" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5139,8 +5218,8 @@
       <c r="C128" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>7</v>
+      <c r="D128" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5153,8 +5232,8 @@
       <c r="C129" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>7</v>
+      <c r="D129" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5167,8 +5246,8 @@
       <c r="C130" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
+      <c r="D130" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5181,8 +5260,8 @@
       <c r="C131" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>7</v>
+      <c r="D131" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5195,8 +5274,8 @@
       <c r="C132" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
+      <c r="D132" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5209,8 +5288,8 @@
       <c r="C133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>7</v>
+      <c r="D133" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5223,8 +5302,8 @@
       <c r="C134" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
+      <c r="D134" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5237,8 +5316,8 @@
       <c r="C135" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>7</v>
+      <c r="D135" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5251,8 +5330,8 @@
       <c r="C136" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>7</v>
+      <c r="D136" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5265,8 +5344,8 @@
       <c r="C137" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>7</v>
+      <c r="D137" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5279,8 +5358,8 @@
       <c r="C138" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>7</v>
+      <c r="D138" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="85" x14ac:dyDescent="0.45">
@@ -5293,8 +5372,8 @@
       <c r="C139" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>7</v>
+      <c r="D139" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="85" x14ac:dyDescent="0.45">
@@ -5307,8 +5386,8 @@
       <c r="C140" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
+      <c r="D140" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5321,8 +5400,8 @@
       <c r="C141" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>7</v>
+      <c r="D141" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5335,8 +5414,8 @@
       <c r="C142" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>7</v>
+      <c r="D142" s="6" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5377,8 +5456,8 @@
       <c r="C145" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>7</v>
+      <c r="D145" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5391,8 +5470,8 @@
       <c r="C146" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>7</v>
+      <c r="D146" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5405,8 +5484,8 @@
       <c r="C147" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
+      <c r="D147" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5419,8 +5498,8 @@
       <c r="C148" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>7</v>
+      <c r="D148" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5433,8 +5512,8 @@
       <c r="C149" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
+      <c r="D149" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5447,8 +5526,8 @@
       <c r="C150" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
+      <c r="D150" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5461,8 +5540,8 @@
       <c r="C151" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
+      <c r="D151" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5475,8 +5554,8 @@
       <c r="C152" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>7</v>
+      <c r="D152" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="102" x14ac:dyDescent="0.45">
@@ -5517,8 +5596,8 @@
       <c r="C155" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
+      <c r="D155" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5531,8 +5610,8 @@
       <c r="C156" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
+      <c r="D156" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -5573,8 +5652,8 @@
       <c r="C159" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
+      <c r="D159" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5601,8 +5680,8 @@
       <c r="C161" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
+      <c r="D161" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5615,8 +5694,8 @@
       <c r="C162" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>7</v>
+      <c r="D162" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5629,8 +5708,8 @@
       <c r="C163" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
+      <c r="D163" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="85" x14ac:dyDescent="0.45">
@@ -5685,8 +5764,8 @@
       <c r="C167" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
+      <c r="D167" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5699,8 +5778,8 @@
       <c r="C168" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
+      <c r="D168" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5755,8 +5834,8 @@
       <c r="C172" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>7</v>
+      <c r="D172" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5769,8 +5848,8 @@
       <c r="C173" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>7</v>
+      <c r="D173" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -5783,8 +5862,8 @@
       <c r="C174" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>7</v>
+      <c r="D174" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -5797,8 +5876,8 @@
       <c r="C175" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
+      <c r="D175" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -5811,8 +5890,8 @@
       <c r="C176" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>7</v>
+      <c r="D176" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -5825,8 +5904,8 @@
       <c r="C177" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
+      <c r="D177" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="204" x14ac:dyDescent="0.45">
@@ -5839,8 +5918,8 @@
       <c r="C178" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>7</v>
+      <c r="D178" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5853,8 +5932,8 @@
       <c r="C179" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
+      <c r="D179" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5867,8 +5946,8 @@
       <c r="C180" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>7</v>
+      <c r="D180" s="6" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="68" x14ac:dyDescent="0.45">
@@ -5881,8 +5960,8 @@
       <c r="C181" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>7</v>
+      <c r="D181" s="6" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="221" x14ac:dyDescent="0.45">
@@ -5895,8 +5974,8 @@
       <c r="C182" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>7</v>
+      <c r="D182" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -5909,8 +5988,8 @@
       <c r="C183" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>7</v>
+      <c r="D183" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -5923,8 +6002,8 @@
       <c r="C184" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>7</v>
+      <c r="D184" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="170" x14ac:dyDescent="0.45">
@@ -5937,8 +6016,8 @@
       <c r="C185" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>7</v>
+      <c r="D185" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="136" x14ac:dyDescent="0.45">
@@ -5951,8 +6030,8 @@
       <c r="C186" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>7</v>
+      <c r="D186" s="6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -6019,8 +6098,8 @@
       <c r="C191" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
+      <c r="D191" s="6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="85" x14ac:dyDescent="0.45">
@@ -6033,8 +6112,8 @@
       <c r="C192" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>7</v>
+      <c r="D192" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="119" x14ac:dyDescent="0.45">
@@ -6047,8 +6126,8 @@
       <c r="C193" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
+      <c r="D193" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6075,8 +6154,8 @@
       <c r="C195" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
+      <c r="D195" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6089,8 +6168,8 @@
       <c r="C196" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
+      <c r="D196" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6103,8 +6182,8 @@
       <c r="C197" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
+      <c r="D197" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6117,8 +6196,8 @@
       <c r="C198" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>7</v>
+      <c r="D198" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6131,8 +6210,8 @@
       <c r="C199" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
+      <c r="D199" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6145,8 +6224,8 @@
       <c r="C200" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>7</v>
+      <c r="D200" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6159,8 +6238,8 @@
       <c r="C201" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
+      <c r="D201" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6173,8 +6252,8 @@
       <c r="C202" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
+      <c r="D202" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6187,8 +6266,8 @@
       <c r="C203" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
+      <c r="D203" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6201,8 +6280,8 @@
       <c r="C204" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>7</v>
+      <c r="D204" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6215,8 +6294,8 @@
       <c r="C205" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>7</v>
+      <c r="D205" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6229,8 +6308,8 @@
       <c r="C206" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
+      <c r="D206" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -6589,8 +6668,94 @@
   <hyperlinks>
     <hyperlink ref="C228" r:id="rId1" xr:uid="{383B9B62-6B04-4751-A3F3-CCB686E5D31F}"/>
     <hyperlink ref="C227" r:id="rId2" xr:uid="{AEA8C1EA-7E75-4808-B422-8F1C61305A55}"/>
+    <hyperlink ref="D167" r:id="rId3" xr:uid="{89490502-6408-4AB4-A078-EC3D927CA585}"/>
+    <hyperlink ref="D98" r:id="rId4" xr:uid="{E5043563-7134-4344-84E4-860C95D166B1}"/>
+    <hyperlink ref="D99" r:id="rId5" xr:uid="{80B90DAD-9637-45E6-96A0-03E49E91F8BE}"/>
+    <hyperlink ref="D139" r:id="rId6" xr:uid="{81B2D899-9426-48ED-B84D-21D045545E33}"/>
+    <hyperlink ref="D140" r:id="rId7" xr:uid="{1C2902A6-9416-4082-B386-348148EDB351}"/>
+    <hyperlink ref="D96" r:id="rId8" xr:uid="{27039A8E-00D1-4DEC-AB95-800B211911FA}"/>
+    <hyperlink ref="D106" r:id="rId9" xr:uid="{0740F95A-3669-4201-9E1F-2E8F19249DBF}"/>
+    <hyperlink ref="D109" r:id="rId10" xr:uid="{DFD1BE14-5A3B-4734-B034-7E32D97C41CD}"/>
+    <hyperlink ref="D149" r:id="rId11" xr:uid="{DEC3AEF0-9369-4005-9988-741BDFF4A185}"/>
+    <hyperlink ref="D161" r:id="rId12" xr:uid="{75336B52-13DA-4920-9168-8481FC50F465}"/>
+    <hyperlink ref="D185" r:id="rId13" xr:uid="{4C47A815-1FF8-4E6B-977E-6C6C2CDDC483}"/>
+    <hyperlink ref="D107" r:id="rId14" xr:uid="{D67BBF01-67D5-40A5-B900-BBCD513AFB4E}"/>
+    <hyperlink ref="D117" r:id="rId15" xr:uid="{1E230E9E-9C81-437D-BA64-B24EE25849A3}"/>
+    <hyperlink ref="D118" r:id="rId16" xr:uid="{3CE49832-346F-4E26-B482-3456AE643C5C}"/>
+    <hyperlink ref="D129" r:id="rId17" xr:uid="{4D5198FE-590D-480A-9AE6-DA98E2BF34C7}"/>
+    <hyperlink ref="D127" r:id="rId18" xr:uid="{BFD6E2A5-A1DE-472E-87E0-DD01194C403A}"/>
+    <hyperlink ref="D135" r:id="rId19" xr:uid="{DEBBA881-E872-4C1F-84CC-883FB7E5E2A3}"/>
+    <hyperlink ref="D136" r:id="rId20" xr:uid="{3F1F2163-60A0-418B-B48D-65D3B1506626}"/>
+    <hyperlink ref="D173" r:id="rId21" xr:uid="{EC3C6DE9-C1DB-4F45-8D8B-373CD8AAD78F}"/>
+    <hyperlink ref="D108" r:id="rId22" xr:uid="{06B3E3A4-EF0B-4E3D-A357-4D7AB009CFD3}"/>
+    <hyperlink ref="D114" r:id="rId23" xr:uid="{920CC70D-FFDE-4D7A-95C2-77C26C0687E0}"/>
+    <hyperlink ref="D145" r:id="rId24" xr:uid="{E00AA983-3158-4114-AEF7-C4B497ECBB87}"/>
+    <hyperlink ref="D162" r:id="rId25" xr:uid="{66D8D886-90C8-40BE-A6AC-D33E6BE12339}"/>
+    <hyperlink ref="D184" r:id="rId26" xr:uid="{CE4D5E7E-8D48-48E4-909B-4BB67AB85027}"/>
+    <hyperlink ref="D110" r:id="rId27" xr:uid="{20F2C34E-A4CB-479D-B2C4-6950C6F1B40B}"/>
+    <hyperlink ref="D111" r:id="rId28" xr:uid="{A54D5C5B-0AEB-428F-9306-16AD3E971FB1}"/>
+    <hyperlink ref="D159" r:id="rId29" xr:uid="{0E362A1F-C61C-4388-81C8-23DF23D24D82}"/>
+    <hyperlink ref="D174" r:id="rId30" xr:uid="{4E91D3D1-5C30-4E3E-B6E0-7EE9CC0E94DA}"/>
+    <hyperlink ref="D112" r:id="rId31" xr:uid="{FEE1A36D-787B-4460-9788-C4EE1D91CCD0}"/>
+    <hyperlink ref="D178" r:id="rId32" xr:uid="{19FD3D3E-D808-4B35-88CC-7AEA0AE3B47E}"/>
+    <hyperlink ref="D195" r:id="rId33" xr:uid="{74F58E1A-A850-4A38-939A-5BD89B551FFE}"/>
+    <hyperlink ref="D196" r:id="rId34" xr:uid="{4565A60E-E1EC-49B5-9A55-1F85E380F7ED}"/>
+    <hyperlink ref="D197" r:id="rId35" xr:uid="{6A85AF2B-893D-4252-A78B-3A9D12C236F1}"/>
+    <hyperlink ref="D198" r:id="rId36" xr:uid="{A565552E-EB89-44FC-A013-353A25B2E6BB}"/>
+    <hyperlink ref="D199" r:id="rId37" xr:uid="{3919F390-0E53-4295-98A0-71D1AA66A5B7}"/>
+    <hyperlink ref="D200" r:id="rId38" xr:uid="{1581C7A4-8037-431F-A791-CFC95DB15922}"/>
+    <hyperlink ref="D201" r:id="rId39" xr:uid="{6C3F999D-D182-4447-8C5B-1EE20918C4F9}"/>
+    <hyperlink ref="D202" r:id="rId40" xr:uid="{E2D4510E-2F19-46D0-918D-20D8A6C084E9}"/>
+    <hyperlink ref="D203" r:id="rId41" xr:uid="{F94D4201-7728-42FF-9766-9AD880A418D4}"/>
+    <hyperlink ref="D204" r:id="rId42" xr:uid="{EADD3D15-3075-4995-9B0D-7DB41B9FECBD}"/>
+    <hyperlink ref="D205" r:id="rId43" xr:uid="{9567E953-B930-4046-BA2E-ACB6D3883BD1}"/>
+    <hyperlink ref="D206" r:id="rId44" xr:uid="{55B541F5-E48E-45B1-9446-1DD7BA38B40D}"/>
+    <hyperlink ref="D113" r:id="rId45" xr:uid="{BCA78E62-013F-49CC-93CD-BD0C571D5A66}"/>
+    <hyperlink ref="D191" r:id="rId46" xr:uid="{5F10B317-9A45-44F1-A036-48CE94BCDAE3}"/>
+    <hyperlink ref="D115" r:id="rId47" xr:uid="{875B2ADA-04F7-4F26-9053-68F87909324B}"/>
+    <hyperlink ref="D163" r:id="rId48" xr:uid="{B5AF345E-B8D8-4B49-A8E0-1F8D3A649B48}"/>
+    <hyperlink ref="D192" r:id="rId49" xr:uid="{2134D6DF-F07B-4938-8868-367C7791A604}"/>
+    <hyperlink ref="D116" r:id="rId50" xr:uid="{5D2513C7-8E60-4DB0-9270-CAF8996E74C7}"/>
+    <hyperlink ref="D177" r:id="rId51" xr:uid="{658232A0-0F5B-4DCC-8C7E-E2E26F17B3A5}"/>
+    <hyperlink ref="D119" r:id="rId52" xr:uid="{293E328B-9661-49D7-83FA-93924E9FFF7D}"/>
+    <hyperlink ref="D123" r:id="rId53" xr:uid="{875C80C7-8A61-4E9A-B812-3C4F2DC76FC3}"/>
+    <hyperlink ref="D124" r:id="rId54" xr:uid="{55D1D73E-CEB1-4255-8836-3476CA5EC267}"/>
+    <hyperlink ref="D126" r:id="rId55" xr:uid="{AA6F2C9F-2AC9-4795-ABB1-57046DE17AE1}"/>
+    <hyperlink ref="D147" r:id="rId56" xr:uid="{31B2EB9D-D9FE-422B-8A99-524994C725D2}"/>
+    <hyperlink ref="D148" r:id="rId57" xr:uid="{4789E052-0833-49BB-B043-B6F65EB47268}"/>
+    <hyperlink ref="D151" r:id="rId58" xr:uid="{B3217767-A9AE-4FE5-9065-E988CA93EDB8}"/>
+    <hyperlink ref="D152" r:id="rId59" xr:uid="{605B0FE3-178C-4F5D-B9F4-6B3B7C9F044C}"/>
+    <hyperlink ref="D168" r:id="rId60" xr:uid="{8B9A759B-F7E0-420F-9B37-1A7DB79D17DF}"/>
+    <hyperlink ref="D193" r:id="rId61" xr:uid="{C3F8FDFE-A1AE-4E20-B790-F6C0F0C1452D}"/>
+    <hyperlink ref="D120" r:id="rId62" xr:uid="{63B63597-C5DD-4A33-A947-CF04A370AC63}"/>
+    <hyperlink ref="D121" r:id="rId63" xr:uid="{B7641C91-2DF4-45C2-BD36-C06691F928E0}"/>
+    <hyperlink ref="D128" r:id="rId64" xr:uid="{77F1B646-F23A-47DD-A6CD-CC2BE280BECC}"/>
+    <hyperlink ref="D130" r:id="rId65" xr:uid="{E9C30BBA-9A58-4CC6-8AC1-DE269FEA760A}"/>
+    <hyperlink ref="D134" r:id="rId66" xr:uid="{80E158FD-5609-4E81-A5D9-68868E3A8675}"/>
+    <hyperlink ref="D137" r:id="rId67" xr:uid="{2632340D-9A8A-407C-A1B3-CF3DAE4C47F5}"/>
+    <hyperlink ref="D138" r:id="rId68" xr:uid="{E225F50C-4396-4317-84A8-493C5F086F68}"/>
+    <hyperlink ref="D155" r:id="rId69" xr:uid="{6D0841B9-D3EE-4C6D-A763-250637843D27}"/>
+    <hyperlink ref="D156" r:id="rId70" xr:uid="{FD4D0320-DAC5-4C5E-BE1F-AABA0B58D8F0}"/>
+    <hyperlink ref="D183" r:id="rId71" xr:uid="{DB728E32-5A8C-49DB-9D67-9C7D0F9AA88E}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{5B96B914-E52E-4F30-BC8D-7CD5BA965961}"/>
+    <hyperlink ref="D172" r:id="rId73" xr:uid="{51DE039B-72C9-4D71-8B58-7905CBD9AD27}"/>
+    <hyperlink ref="D175" r:id="rId74" xr:uid="{836C4A25-0CFD-4337-A864-E1EE45F86695}"/>
+    <hyperlink ref="D125" r:id="rId75" xr:uid="{414E2968-3B34-44A1-9B5B-88C4644A3209}"/>
+    <hyperlink ref="D176" r:id="rId76" xr:uid="{F2716D30-B085-43D1-A2E5-7470C34C4495}"/>
+    <hyperlink ref="D131" r:id="rId77" xr:uid="{6B1C2276-03FD-4419-93E6-117FB64B66CA}"/>
+    <hyperlink ref="D132" r:id="rId78" xr:uid="{68AA249E-61B4-4670-A6F8-9770EE0AE394}"/>
+    <hyperlink ref="D133" r:id="rId79" xr:uid="{721D9325-2A8E-4F6A-A5BD-621EE420FEDE}"/>
+    <hyperlink ref="D182" r:id="rId80" xr:uid="{894E46CB-D773-41E8-A15B-A43431C83D12}"/>
+    <hyperlink ref="D141" r:id="rId81" xr:uid="{C254003F-D962-4C7D-8002-F7995FF4C4CF}"/>
+    <hyperlink ref="D179" r:id="rId82" xr:uid="{C188FFCC-34A6-48C9-95EC-9C52415B2164}"/>
+    <hyperlink ref="D142" r:id="rId83" xr:uid="{4773FFF4-0EAD-4F06-AD3E-8990133CC119}"/>
+    <hyperlink ref="D180" r:id="rId84" xr:uid="{F5282B7E-CFBA-4AC0-B23B-608489FFCB4B}"/>
+    <hyperlink ref="D181" r:id="rId85" xr:uid="{3D80F3C5-BD30-4C59-BCAB-B38CA67F5395}"/>
+    <hyperlink ref="D186" r:id="rId86" xr:uid="{175D93BC-62CB-4C59-A67E-279022BF1B94}"/>
+    <hyperlink ref="D150" r:id="rId87" xr:uid="{A956AB51-0886-41EE-AE46-7BC4A030B443}"/>
+    <hyperlink ref="D146" r:id="rId88" xr:uid="{2936AB71-A8FC-4CC0-AEBA-9C08392D441A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/train_tools/qna/answer_data.xlsx
+++ b/train_tools/qna/answer_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq348\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8999D0-2493-425D-8ACC-EC89C395D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B95F8-AAEE-47A2-BA69-7CE0C50FF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교목실번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학원선교팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
   </si>
   <si>
     <t>원격교육지원센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실대학교번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2992,6 +2984,14 @@
   <si>
     <t>http://15.164.249.147/images/13.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭실대전화번호알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교목실전화번호알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3112,8 +3112,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3418,19 +3418,19 @@
   <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3444,49 +3444,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3494,3173 +3494,3173 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="363" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D124" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="323" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="323" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="323" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="323" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="374" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="D125" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D195" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B227" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A133" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A135" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A145" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A146" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A147" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A148" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A150" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A151" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A152" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A153" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A154" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A156" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A158" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A159" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A160" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A161" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A162" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A163" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A164" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A165" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A166" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A167" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A168" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A169" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A171" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A172" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A173" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A174" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A175" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A176" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A177" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A178" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A179" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A180" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A181" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A182" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A183" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A184" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A185" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A186" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A187" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A188" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A189" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A190" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A191" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A192" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A193" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A194" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A195" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A196" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A197" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A198" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A199" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A200" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A201" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A203" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A205" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A206" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A207" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A208" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A209" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A210" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A211" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A212" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A213" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A214" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A215" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A216" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A217" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A218" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A219" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A220" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A221" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A222" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A223" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A224" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A225" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A226" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A227" s="1" t="s">
+      <c r="C227" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C228" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A229" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A230" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="C230" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D235" s="3"/>
     </row>
   </sheetData>

--- a/train_tools/qna/answer_data.xlsx
+++ b/train_tools/qna/answer_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq348\Desktop\SSU_BOT\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B95F8-AAEE-47A2-BA69-7CE0C50FF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9414F-DD14-4CF6-AF64-069D51149671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="1670" windowWidth="19200" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2910,88 +2910,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/14.jpg</t>
+    <t>숭실대전화번호알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교목실전화번호알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://15.164.249.147:5000/images/12.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/12.jpg</t>
+    <t>http://15.164.249.147:5000/images/14.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/11.jpg</t>
+    <t>http://15.164.249.147:5000/images/11.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/0.jpg</t>
+    <t>http://15.164.249.147:5000/images/0.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/10.jpg</t>
+    <t>http://15.164.249.147:5000/images/10.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/1.jpg</t>
+    <t>http://15.164.249.147:5000/images/1.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/4.jpg</t>
+    <t>http://15.164.249.147:5000/images/4.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/15.jpg</t>
+    <t>http://15.164.249.147:5000/images/15.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/18.jpg</t>
+    <t>http://15.164.249.147:5000/images/18.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/3.jpg</t>
+    <t>http://15.164.249.147:5000/images/3.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/17.jpg</t>
+    <t>http://15.164.249.147:5000/images/17.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/8.jpg</t>
+    <t>http://15.164.249.147:5000/images/8.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/2.jpg</t>
+    <t>http://15.164.249.147:5000/images/2.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/16.jpg</t>
+    <t>http://15.164.249.147:5000/images/16.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/9.jpg</t>
+    <t>http://15.164.249.147:5000/images/9.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/5.jpg</t>
+    <t>http://15.164.249.147:5000/images/5.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/6.jpg</t>
+    <t>http://15.164.249.147:5000/images/6.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/7.jpg</t>
+    <t>http://15.164.249.147:5000/images/13.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://15.164.249.147/images/13.jpg</t>
+    <t>http://15.164.249.147:5000/images/7.jpg</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실대전화번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교목실전화번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3112,8 +3112,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3418,19 +3418,19 @@
   <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3444,12 +3444,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>241</v>
@@ -3458,12 +3458,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>242</v>
@@ -3472,7 +3472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="363" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="374" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
@@ -4771,10 +4771,10 @@
         <v>167</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -4799,10 +4799,10 @@
         <v>172</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -4813,10 +4813,10 @@
         <v>173</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>185</v>
       </c>
@@ -4911,10 +4911,10 @@
         <v>187</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>185</v>
       </c>
@@ -4925,10 +4925,10 @@
         <v>198</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>185</v>
       </c>
@@ -4939,10 +4939,10 @@
         <v>199</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>185</v>
       </c>
@@ -4953,10 +4953,10 @@
         <v>200</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>185</v>
       </c>
@@ -4967,10 +4967,10 @@
         <v>201</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>185</v>
       </c>
@@ -4981,10 +4981,10 @@
         <v>202</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>185</v>
       </c>
@@ -4995,10 +4995,10 @@
         <v>203</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>185</v>
       </c>
@@ -5009,10 +5009,10 @@
         <v>204</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>185</v>
       </c>
@@ -5023,10 +5023,10 @@
         <v>205</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
@@ -5037,10 +5037,10 @@
         <v>206</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
@@ -5051,10 +5051,10 @@
         <v>207</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
@@ -5065,10 +5065,10 @@
         <v>234</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>185</v>
       </c>
@@ -5079,10 +5079,10 @@
         <v>235</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>185</v>
       </c>
@@ -5093,10 +5093,10 @@
         <v>236</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>185</v>
       </c>
@@ -5107,10 +5107,10 @@
         <v>237</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>185</v>
       </c>
@@ -5121,10 +5121,10 @@
         <v>239</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
@@ -5135,10 +5135,10 @@
         <v>238</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>185</v>
       </c>
@@ -5149,10 +5149,10 @@
         <v>240</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>185</v>
       </c>
@@ -5163,10 +5163,10 @@
         <v>251</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>185</v>
       </c>
@@ -5177,10 +5177,10 @@
         <v>252</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>185</v>
       </c>
@@ -5191,10 +5191,10 @@
         <v>253</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>185</v>
       </c>
@@ -5205,10 +5205,10 @@
         <v>254</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>185</v>
       </c>
@@ -5219,10 +5219,10 @@
         <v>255</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>185</v>
       </c>
@@ -5233,10 +5233,10 @@
         <v>256</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>185</v>
       </c>
@@ -5247,10 +5247,10 @@
         <v>257</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
@@ -5261,10 +5261,10 @@
         <v>258</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
@@ -5275,10 +5275,10 @@
         <v>259</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -5289,10 +5289,10 @@
         <v>260</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
@@ -5303,10 +5303,10 @@
         <v>261</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -5317,10 +5317,10 @@
         <v>262</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>5</v>
       </c>
@@ -5331,10 +5331,10 @@
         <v>263</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
@@ -5345,10 +5345,10 @@
         <v>264</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -5359,10 +5359,10 @@
         <v>265</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -5373,10 +5373,10 @@
         <v>344</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -5387,10 +5387,10 @@
         <v>345</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
@@ -5401,10 +5401,10 @@
         <v>266</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
@@ -5415,10 +5415,10 @@
         <v>267</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
@@ -5457,10 +5457,10 @@
         <v>299</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -5471,10 +5471,10 @@
         <v>300</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -5485,10 +5485,10 @@
         <v>301</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -5499,10 +5499,10 @@
         <v>302</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>5</v>
       </c>
@@ -5513,10 +5513,10 @@
         <v>303</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -5527,10 +5527,10 @@
         <v>304</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -5541,10 +5541,10 @@
         <v>305</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
@@ -5555,10 +5555,10 @@
         <v>306</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5597,10 +5597,10 @@
         <v>310</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>5</v>
       </c>
@@ -5611,10 +5611,10 @@
         <v>311</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
@@ -5653,10 +5653,10 @@
         <v>314</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
@@ -5681,10 +5681,10 @@
         <v>316</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
@@ -5695,10 +5695,10 @@
         <v>317</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5709,10 +5709,10 @@
         <v>318</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -5765,10 +5765,10 @@
         <v>322</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
@@ -5779,10 +5779,10 @@
         <v>323</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>5</v>
       </c>
@@ -5835,10 +5835,10 @@
         <v>327</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>5</v>
       </c>
@@ -5849,10 +5849,10 @@
         <v>417</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
@@ -5863,10 +5863,10 @@
         <v>404</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
@@ -5877,10 +5877,10 @@
         <v>414</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>5</v>
       </c>
@@ -5891,10 +5891,10 @@
         <v>401</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -5905,10 +5905,10 @@
         <v>406</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
@@ -5919,10 +5919,10 @@
         <v>403</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -5933,10 +5933,10 @@
         <v>405</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -5947,10 +5947,10 @@
         <v>415</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
@@ -5961,10 +5961,10 @@
         <v>402</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -5975,10 +5975,10 @@
         <v>407</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>5</v>
       </c>
@@ -5989,10 +5989,10 @@
         <v>413</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -6003,10 +6003,10 @@
         <v>410</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
@@ -6017,10 +6017,10 @@
         <v>409</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
@@ -6031,10 +6031,10 @@
         <v>351</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>5</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>419</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>5</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
@@ -6099,10 +6099,10 @@
         <v>352</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -6113,10 +6113,10 @@
         <v>411</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
@@ -6127,10 +6127,10 @@
         <v>408</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>5</v>
       </c>
@@ -6155,10 +6155,10 @@
         <v>362</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>5</v>
       </c>
@@ -6169,10 +6169,10 @@
         <v>364</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>5</v>
       </c>
@@ -6183,10 +6183,10 @@
         <v>366</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -6197,10 +6197,10 @@
         <v>368</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>5</v>
       </c>
@@ -6211,10 +6211,10 @@
         <v>370</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -6225,10 +6225,10 @@
         <v>372</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>5</v>
       </c>
@@ -6239,10 +6239,10 @@
         <v>374</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -6253,10 +6253,10 @@
         <v>376</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>5</v>
       </c>
@@ -6267,10 +6267,10 @@
         <v>378</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -6281,10 +6281,10 @@
         <v>390</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>5</v>
       </c>
@@ -6295,10 +6295,10 @@
         <v>391</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
@@ -6309,10 +6309,10 @@
         <v>392</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
         <v>5</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>5</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
         <v>5</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>5</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>353</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>353</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>353</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>353</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>353</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>353</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>353</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>353</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>353</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>353</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>353</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>353</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>427</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>427</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>427</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>427</v>
       </c>
@@ -6648,19 +6648,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D235" s="3"/>
     </row>
   </sheetData>
